--- a/TestFiles/MLSDataRawSmall.xlsx
+++ b/TestFiles/MLSDataRawSmall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Origami1105\source\repos\WindowsFormsApp1\TestFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Origami1105\source\repos\BuschEric97\HatcoFilesClosedDeterminer\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B081DFE8-DE84-41EA-8AED-EAEA06059BCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE07E8F-9988-472E-AA1F-9D4E0244DE5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HatcoSampleMLSData" sheetId="1" r:id="rId1"/>
@@ -1786,12 +1786,12 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>61900</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>142500</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>227000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>293000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>168000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>193500</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>349000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>341500</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>279900</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>143000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>103000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>262500</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>244900</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>285000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>231700</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>265000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>182000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>132</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>198500</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>435000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>159</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>88800</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>167</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>187000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>128500</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>179</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>424900</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>184</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>189</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>226000</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>193</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>197</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>157500</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>200</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>157900</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>133</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>268000</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>211</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>181000</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>214</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>161560</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>221</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>225</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>92000</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>129</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>232</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>62500</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>236</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>205500</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>142</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>255000</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>208</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>536400</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>244</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>224900</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>419600</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>149</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>253</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>162</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>199000</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>33500</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>167</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>155800</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>269</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>272</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>192000</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>315823</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>280</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>140800</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>284</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>255000</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>290</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>174000</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>294</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>202600</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>298</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>191465</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>302</v>
       </c>

--- a/TestFiles/MLSDataRawSmall.xlsx
+++ b/TestFiles/MLSDataRawSmall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Origami1105\source\repos\BuschEric97\HatcoFilesClosedDeterminer\TestFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Origami1105\source\repos\WindowsFormsApp1\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE07E8F-9988-472E-AA1F-9D4E0244DE5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585804FE-0676-4E07-8E89-E458FE8F84A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HatcoSampleMLSData" sheetId="1" r:id="rId1"/>
@@ -1789,9 +1789,9 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>61900</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>142500</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>227000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>293000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>168000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>193500</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>349000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>341500</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>279900</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>143000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>103000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>262500</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>244900</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>285000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>231700</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>265000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>182000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>132</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>198500</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>435000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>159</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>88800</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>167</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>187000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>128500</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>179</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>424900</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>184</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>189</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>226000</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>193</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>197</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>157500</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>200</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>157900</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>133</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>268000</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>211</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>181000</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>214</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>161560</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>221</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>225</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>92000</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>129</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>232</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>62500</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>236</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>205500</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>142</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>255000</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>208</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>536400</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>244</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>224900</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>419600</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>149</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>253</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>162</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>199000</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>33500</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>167</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>155800</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>269</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>272</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>192000</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>315823</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>280</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>140800</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>284</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>255000</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>290</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>174000</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>294</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>202600</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>298</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>191465</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>302</v>
       </c>

--- a/TestFiles/MLSDataRawSmall.xlsx
+++ b/TestFiles/MLSDataRawSmall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Origami1105\source\repos\WindowsFormsApp1\TestFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Origami1105\Source\Repos\BuschEric97\HatcoFilesClosedDeterminer\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585804FE-0676-4E07-8E89-E458FE8F84A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE8474D-766D-40FC-B4EE-D03C1974EDA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HatcoSampleMLSData" sheetId="1" r:id="rId1"/>
@@ -1789,9 +1789,12 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>61900</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>142500</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1968,7 +1971,7 @@
         <v>227000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>293000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>168000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -2171,7 +2174,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>193500</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>349000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>341500</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>279900</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2316,7 +2319,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>143000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2374,7 +2377,7 @@
         <v>103000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>262500</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>244900</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>285000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>231700</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -2548,7 +2551,7 @@
         <v>265000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>182000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>132</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>198500</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -2722,7 +2725,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -2751,7 +2754,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -2780,7 +2783,7 @@
         <v>435000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>159</v>
       </c>
@@ -2838,7 +2841,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>88800</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>167</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>187000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>128500</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>179</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>424900</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>184</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>189</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>226000</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>193</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>197</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>157500</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>200</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>157900</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>133</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>268000</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -3186,7 +3189,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>211</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>181000</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>214</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>161560</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -3273,7 +3276,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>221</v>
       </c>
@@ -3302,7 +3305,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>225</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>92000</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>129</v>
       </c>
@@ -3360,7 +3363,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>232</v>
       </c>
@@ -3389,7 +3392,7 @@
         <v>62500</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>236</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>205500</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>142</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>255000</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>208</v>
       </c>
@@ -3476,7 +3479,7 @@
         <v>536400</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>244</v>
       </c>
@@ -3505,7 +3508,7 @@
         <v>224900</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -3534,7 +3537,7 @@
         <v>419600</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>149</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>253</v>
       </c>
@@ -3592,7 +3595,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>162</v>
       </c>
@@ -3621,7 +3624,7 @@
         <v>199000</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>33500</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>167</v>
       </c>
@@ -3679,7 +3682,7 @@
         <v>155800</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>269</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>272</v>
       </c>
@@ -3737,7 +3740,7 @@
         <v>192000</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>315823</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>280</v>
       </c>
@@ -3795,7 +3798,7 @@
         <v>140800</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>284</v>
       </c>
@@ -3824,7 +3827,7 @@
         <v>255000</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3853,7 +3856,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>290</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>174000</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>294</v>
       </c>
@@ -3911,7 +3914,7 @@
         <v>202600</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>298</v>
       </c>
@@ -3940,7 +3943,7 @@
         <v>191465</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>302</v>
       </c>

--- a/TestFiles/MLSDataRawSmall.xlsx
+++ b/TestFiles/MLSDataRawSmall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Origami1105\Source\Repos\BuschEric97\HatcoFilesClosedDeterminer\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE8474D-766D-40FC-B4EE-D03C1974EDA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C96979D-402F-4141-B8F3-CB7785841914}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HatcoSampleMLSData" sheetId="1" r:id="rId1"/>
@@ -1786,7 +1786,7 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
